--- a/medicine/Pharmacie/Antimicrobien/Antimicrobien.xlsx
+++ b/medicine/Pharmacie/Antimicrobien/Antimicrobien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un antimicrobien est une famille de substances qui tuent (microbicide) ou ralentissent (microbiostatique) la croissance des microbes tels les bactéries (activité antibactérienne), les mycètes (activité antimycosique), les virus (activité antivirale), ou les parasites (activité antiparasitaire). 
 Les antibiotiques sont une classe d'antimicrobiens antibactériens et antimycotiques qui peuvent potentiellement être utilisés comme médicaments en médecine pour traiter les infections à cause de leur basse toxicité pour l'être humain et pour l'animal.
